--- a/xlsx/古巴_intext.xlsx
+++ b/xlsx/古巴_intext.xlsx
@@ -29,7 +29,7 @@
     <t>古巴國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_古巴</t>
+    <t>体育运动_体育运动_伊朗_古巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%9C%8B%E5%BE%BD</t>
